--- a/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Collegetown_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Collegetown_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +826,33 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN380</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Natalie's - Strawberry Lemonade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
